--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf4.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Estados Partes reconhecem que os problemas do espaço oceânico estão estreitamente inter-relacionados e devem ser considerados como um todo.</t>
+          <t>O Estado arquipélago pode traçar linhas de base retas desde que a razão entre a superfície marítima e a terrestre se situe entre 1:1 e 9:1.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Os Estados Partes entendem que os problemas do espaço oceânico são independentes entre si e devem ser tratados de forma isolada e fragmentada.</t>
+          <t>O Estado arquipélago pode traçar linhas de base retas livremente, desde que a superfície marítima seja pelo menos dez vezes superior à superfície terrestre (razão 10:1).</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Os problemas do espaço oceânico estão estreitamente inter-relacionados e devem ser considerados como um todo.</t>
+          <t>Conforme o **Artigo 47, parágrafo 1**, a razão deve situar-se entre um para um e nove para um.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Convenção reafirma que os fundos marinhos e oceânicos além da jurisdição nacional, bem como seus recursos, são patrimônio comum da humanidade.</t>
+          <t>O comprimento das linhas de base arquipelágicas não deve exceder 100 milhas marítimas, admitindo-se exceção de até 3% das linhas com máximo de 125 milhas.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Convenção estabelece que os fundos marinhos além da jurisdição nacional pertencem exclusivamente aos países costeiros mais próximos.</t>
+          <t>O comprimento máximo de qualquer linha de base arquipelágica é fixo e absoluto em 200 milhas marítimas, sem exceções percentuais.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A resolução 2749 (XXV) declarou que os fundos marinhos além dos limites de jurisdição nacional são patrimônio comum da humanidade.</t>
+          <t>Segundo o **Artigo 47, parágrafo 2**, o limite é 100 milhas, com tolerância de até 3% alcançando 125 milhas.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os fatos ocorridos desde as Conferências de Genebra em 1958 e 1960 acentuaram a necessidade de uma nova Convenção sobre o direito do mar de aceitação geral.</t>
+          <t>O sistema de linhas de base não pode ser aplicado por um Estado arquipélago de modo a separar do alto mar ou de uma ZEE o mar territorial de outro Estado.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>As Conferências de Genebra de 1958 e 1960 resolveram definitivamente todas as questões, tornando desnecessária uma nova Convenção sobre o direito do mar.</t>
+          <t>O Estado arquipélago tem prioridade no traçado de linhas de base, podendo isolar o mar territorial de Estados vizinhos do acesso ao alto mar se necessário.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Verificou-se que os fatos ocorridos desde as Conferências de Genebra acentuaram a necessidade de uma nova Convenção.</t>
+          <t>O **Artigo 47, parágrafo 5**, proíbe o traçado de linhas que separem o mar territorial de outro Estado do alto mar ou ZEE.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>As matérias não reguladas pela presente Convenção continuarão a ser regidas pelas normas e princípios do direito internacional geral.</t>
+          <t>A soberania do Estado arquipélago estende-se às águas arquipelágicas, ao espaço aéreo sobrejacente, ao leito e ao subsolo, bem como aos recursos neles existentes.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>As matérias não reguladas pela presente Convenção deixarão de ter qualquer amparo jurídico até que uma nova emenda seja aprovada.</t>
+          <t>A soberania nas águas arquipelágicas limita-se à coluna d'água, permanecendo o espaço aéreo sobrejacente como espaço aéreo internacional de livre sobrevoo.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O texto afirma que as matérias não reguladas continuam a ser regidas pelas normas e princípios do direito internacional geral.</t>
+          <t>De acordo com o **Artigo 49, parágrafo 2**, a soberania estende-se ao espaço aéreo, leito e subsolo.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Para efeitos da Convenção, "Área" significa o leito do mar, os fundos marinhos e o seu subsolo além dos limites da jurisdição nacional.</t>
+          <t>O Estado arquipélago deve respeitar cabos submarinos existentes colocados por outros Estados que passem por suas águas sem tocar terra.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Para efeitos da Convenção, "Área" refere-se a toda a extensão oceânica, incluindo as águas territoriais e as zonas econômicas exclusivas dos Estados.</t>
+          <t>O Estado arquipélago tem o direito de remover quaisquer cabos submarinos estrangeiros que atravessem suas águas arquipelágicas sem autorização prévia.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>"Área" é definida especificamente como o leito do mar, fundos marinhos e subsolo além dos limites da jurisdição nacional.</t>
+          <t>O **Artigo 51, parágrafo 2**, estabelece o dever de respeitar cabos existentes que não toquem terra.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,31 +653,133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte IV - Estados Arquipélagos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O termo "alijamento" não inclui o lançamento de detritos resultantes da exploração normal de embarcações, aeronaves e plataformas.</t>
+          <t>O Estado arquipélago pode suspender temporariamente a passagem inocente em determinadas áreas de suas águas se for indispensável à sua segurança e após publicação.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O termo "alijamento" abrange qualquer tipo de lançamento de detritos ao mar, inclusive aqueles derivados da operação normal de embarcações.</t>
+          <t>O direito de passagem inocente nas águas arquipelágicas é absoluto e não pode ser suspenso pelo Estado arquipélago sob nenhuma circunstância.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O conceito de "alijamento" exclui expressamente o lançamento de detritos resultantes da exploração normal de embarcações e estruturas.</t>
+          <t>Conforme o **Artigo 52, parágrafo 2**, a suspensão temporária é permitida por razões de segurança, sem discriminação e após publicidade.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Decreto nº 1533/1995 - CNUDM.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Parte IV - Estados Arquipélagos</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A passagem pelas rotas marítimas arquipelágicas destina-se exclusivamente ao trânsito contínuo, rápido e sem entraves entre uma parte do alto mar (ou ZEE) e outra.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A passagem pelas rotas marítimas arquipelágicas permite a realização de exercícios militares e paradas para abastecimento sem restrições de tempo.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nos termos do **Artigo 53, parágrafo 3**, a passagem é exclusivamente para fins de trânsito contínuo, rápido e sem entraves.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Decreto nº 1533/1995 - CNUDM.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Parte IV - Estados Arquipélagos</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Navios e aeronaves, na passagem por rotas arquipelágicas, não podem afastar-se mais de 25 milhas marítimas para cada lado das linhas axiais.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Na passagem pelas rotas arquipelágicas, os navios podem navegar por toda a largura do canal designado, sem limite de distância em relação à linha axial.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>O **Artigo 53, parágrafo 5**, limita o afastamento a 25 milhas para cada lado das linhas axiais.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Decreto nº 1533/1995 - CNUDM.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Parte IV - Estados Arquipélagos</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Se um Estado arquipélago não designar rotas marítimas ou aéreas, o direito de passagem pode ser exercido através das rotas utilizadas normalmente para a navegação internacional.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Se o Estado arquipélago não designar rotas marítimas específicas, o direito de passagem pelas águas arquipelágicas fica suspenso até tal designação.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conforme o **Artigo 53, parágrafo 12**, na falta de designação, utiliza-se as rotas normais de navegação internacional.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
